--- a/1번 Toy Project 개발 일정.xlsx
+++ b/1번 Toy Project 개발 일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\znit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyeseong\toyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A09F7-DB94-47DA-B9A6-710D575FBD27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB14334-32C4-4D75-8154-03993A238E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1995" windowWidth="28290" windowHeight="9750" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
+    <workbookView xWindow="7035" yWindow="3015" windowWidth="28290" windowHeight="11295" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -520,6 +520,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,30 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2252,12 +2252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,26 +2275,26 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="3">
         <v>44306</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="8">
         <v>44306</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="9">
         <f>G3-G2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="6"/>
@@ -2302,241 +2302,245 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="3">
         <v>44307</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="8">
         <v>44307</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="9">
         <f>G4-G3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2">
         <v>44312</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>44309</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f>G10-G4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2">
         <v>44316</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="2">
         <v>44319</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="2">
         <v>44320</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2">
         <v>44321</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2">
         <v>44322</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2">
         <v>44323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>44310</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f>G13-G10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2">
         <v>44325</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2">
         <v>44327</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2">
         <v>44329</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <v>44312</v>
       </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.4</v>
+      <c r="H13" s="10">
+        <f>G14-G13</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2">
         <v>44331</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
+      <c r="G14" s="8">
+        <v>44315</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2">
         <v>44333</v>
       </c>
@@ -2545,12 +2549,12 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="2">
         <v>44335</v>
       </c>
@@ -2564,12 +2568,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2586,6 +2584,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1번 Toy Project 개발 일정.xlsx
+++ b/1번 Toy Project 개발 일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyeseong\toyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB14334-32C4-4D75-8154-03993A238E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7B0EC-A78D-40AB-9A31-C25428479194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="3015" windowWidth="28290" windowHeight="11295" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
+    <workbookView xWindow="1215" yWindow="825" windowWidth="34785" windowHeight="14775" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -543,18 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2252,12 +2252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,12 +2275,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3">
         <v>44306</v>
       </c>
@@ -2302,12 +2302,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3">
         <v>44307</v>
       </c>
@@ -2327,179 +2327,179 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2">
         <v>44312</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="15">
         <v>44309</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <f>G10-G4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="2">
         <v>44316</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="2">
         <v>44319</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="2">
         <v>44320</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="2">
         <v>44321</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2">
         <v>44322</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2">
         <v>44323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>44310</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <f>G13-G10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2">
         <v>44325</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2">
         <v>44327</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2">
         <v>44329</v>
       </c>
@@ -2514,16 +2514,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2">
         <v>44331</v>
       </c>
@@ -2533,14 +2533,17 @@
       <c r="G14" s="8">
         <v>44315</v>
       </c>
+      <c r="I14" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2">
         <v>44333</v>
       </c>
@@ -2549,12 +2552,12 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2">
         <v>44335</v>
       </c>
@@ -2568,6 +2571,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2584,12 +2593,6 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1번 Toy Project 개발 일정.xlsx
+++ b/1번 Toy Project 개발 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyeseong\toyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E7B0EC-A78D-40AB-9A31-C25428479194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24ECFE6-BBF8-4CF6-9073-2F6D70272EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="825" windowWidth="34785" windowHeight="14775" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
   </bookViews>
@@ -532,6 +532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,18 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2252,12 +2252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,12 +2275,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="3">
         <v>44306</v>
       </c>
@@ -2302,12 +2302,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="3">
         <v>44307</v>
       </c>
@@ -2327,179 +2327,179 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2">
         <v>44312</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>44309</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <f>G10-G4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2">
         <v>44316</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="2">
         <v>44319</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="2">
         <v>44320</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2">
         <v>44321</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2">
         <v>44322</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2">
         <v>44323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>44310</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="12">
         <f>G13-G10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2">
         <v>44325</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2">
         <v>44327</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2">
         <v>44329</v>
       </c>
@@ -2518,12 +2518,12 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2">
         <v>44331</v>
       </c>
@@ -2533,31 +2533,41 @@
       <c r="G14" s="8">
         <v>44315</v>
       </c>
+      <c r="H14">
+        <f>G15-G14</f>
+        <v>4</v>
+      </c>
       <c r="I14" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="2">
         <v>44333</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
+      <c r="G15" s="8">
+        <v>44319</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="2">
         <v>44335</v>
       </c>
@@ -2571,12 +2581,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2593,6 +2597,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1번 Toy Project 개발 일정.xlsx
+++ b/1번 Toy Project 개발 일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyeseong\toyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24ECFE6-BBF8-4CF6-9073-2F6D70272EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07600343-ED8B-416E-A91F-211312F33778}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="825" windowWidth="34785" windowHeight="14775" xr2:uid="{2C3EF557-569A-465D-BA4F-A286EB9AF3B1}"/>
   </bookViews>
@@ -532,6 +532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -543,18 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2252,12 +2252,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,12 +2275,12 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="3">
         <v>44306</v>
       </c>
@@ -2302,12 +2302,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="3">
         <v>44307</v>
       </c>
@@ -2327,179 +2327,179 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2">
         <v>44312</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="15">
         <v>44309</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <f>G10-G4</f>
         <v>1</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="2">
         <v>44316</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="2">
         <v>44319</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="2">
         <v>44320</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="2">
         <v>44321</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2">
         <v>44322</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2">
         <v>44323</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="15">
         <v>44310</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <f>G13-G10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2">
         <v>44325</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2">
         <v>44327</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2">
         <v>44329</v>
       </c>
@@ -2518,12 +2518,12 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2">
         <v>44331</v>
       </c>
@@ -2542,12 +2542,12 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2">
         <v>44333</v>
       </c>
@@ -2557,22 +2557,29 @@
       <c r="G15" s="8">
         <v>44319</v>
       </c>
+      <c r="H15">
+        <f>G16-G15</f>
+        <v>3</v>
+      </c>
       <c r="I15" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2">
         <v>44335</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>44322</v>
       </c>
     </row>
     <row r="19" spans="5:5">
@@ -2581,6 +2588,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2597,12 +2610,6 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
